--- a/Code/Results/Cases/Case_9_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_60/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.358796722651334</v>
+        <v>3.362978681946402</v>
       </c>
       <c r="C2">
-        <v>0.4792236807695645</v>
+        <v>0.5618561695227413</v>
       </c>
       <c r="D2">
-        <v>0.02155807164443502</v>
+        <v>0.02943981024289855</v>
       </c>
       <c r="E2">
-        <v>0.03660559887048453</v>
+        <v>0.03559482359710131</v>
       </c>
       <c r="F2">
-        <v>1.486350579655891</v>
+        <v>1.228373651389219</v>
       </c>
       <c r="G2">
-        <v>1.267772103783557</v>
+        <v>0.9891951329241238</v>
       </c>
       <c r="H2">
-        <v>0.009018714366808206</v>
+        <v>0.006818236549645584</v>
       </c>
       <c r="I2">
-        <v>0.01246055086246312</v>
+        <v>0.008627982523886857</v>
       </c>
       <c r="J2">
-        <v>0.825275267432815</v>
+        <v>0.7053852123778057</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.06366875774900294</v>
+        <v>0.2656248310041214</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2054711567133189</v>
       </c>
       <c r="N2">
-        <v>0.2904359848866136</v>
+        <v>0.05704075831549904</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.3334181274508978</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.931501017083121</v>
+        <v>2.933371465011135</v>
       </c>
       <c r="C3">
-        <v>0.421724991277614</v>
+        <v>0.48782741722016</v>
       </c>
       <c r="D3">
-        <v>0.01963243167887541</v>
+        <v>0.02667827776017972</v>
       </c>
       <c r="E3">
-        <v>0.03425466850268677</v>
+        <v>0.03368747823148421</v>
       </c>
       <c r="F3">
-        <v>1.399370270553248</v>
+        <v>1.17238505513204</v>
       </c>
       <c r="G3">
-        <v>1.183770249402812</v>
+        <v>0.940891603718967</v>
       </c>
       <c r="H3">
-        <v>0.01284372651256982</v>
+        <v>0.009820692582255035</v>
       </c>
       <c r="I3">
-        <v>0.01704319273963728</v>
+        <v>0.01188136618491864</v>
       </c>
       <c r="J3">
-        <v>0.7911397456435054</v>
+        <v>0.6810045673088609</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.06006352370904899</v>
+        <v>0.2680743992272561</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.2002089100922859</v>
       </c>
       <c r="N3">
-        <v>0.2555346308808879</v>
+        <v>0.05443070726084542</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.2929286523275039</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.669399233223032</v>
+        <v>2.669501336292626</v>
       </c>
       <c r="C4">
-        <v>0.3867464071294364</v>
+        <v>0.4428811967038939</v>
       </c>
       <c r="D4">
-        <v>0.0184747212134333</v>
+        <v>0.02501718980972711</v>
       </c>
       <c r="E4">
-        <v>0.03280274857295762</v>
+        <v>0.03250451528302811</v>
       </c>
       <c r="F4">
-        <v>1.346549258667494</v>
+        <v>1.138299830493409</v>
       </c>
       <c r="G4">
-        <v>1.132725923643122</v>
+        <v>0.9117309723549027</v>
       </c>
       <c r="H4">
-        <v>0.0156186607228746</v>
+        <v>0.01200975143947894</v>
       </c>
       <c r="I4">
-        <v>0.02035917699791367</v>
+        <v>0.01426570582497355</v>
       </c>
       <c r="J4">
-        <v>0.7705359611584015</v>
+        <v>0.6659417098881022</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0578083889780352</v>
+        <v>0.2694112273296199</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1977446400977705</v>
       </c>
       <c r="N4">
-        <v>0.2342535729314079</v>
+        <v>0.05278847285189503</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.2682592491209732</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.562630854165718</v>
+        <v>2.561926022287821</v>
       </c>
       <c r="C5">
-        <v>0.3733571146864847</v>
+        <v>0.4254688804047646</v>
       </c>
       <c r="D5">
-        <v>0.01805753792939768</v>
+        <v>0.02439917714839623</v>
       </c>
       <c r="E5">
-        <v>0.0321915725668811</v>
+        <v>0.03200541164292936</v>
       </c>
       <c r="F5">
-        <v>1.323036440439424</v>
+        <v>1.12280131771891</v>
       </c>
       <c r="G5">
-        <v>1.109832087665069</v>
+        <v>0.898255767561281</v>
       </c>
       <c r="H5">
-        <v>0.01685975559638903</v>
+        <v>0.01299092905579144</v>
       </c>
       <c r="I5">
-        <v>0.02192692793876327</v>
+        <v>0.01543509381387853</v>
       </c>
       <c r="J5">
-        <v>0.7610900389793755</v>
+        <v>0.6588746482523362</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.05681825987770228</v>
+        <v>0.2694203298441558</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1965849918731415</v>
       </c>
       <c r="N5">
-        <v>0.2259147386285179</v>
+        <v>0.05206957323962058</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.2585275328954566</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.544909190827298</v>
+        <v>2.544058288795725</v>
       </c>
       <c r="C6">
-        <v>0.3721098490143504</v>
+        <v>0.4235482154959129</v>
       </c>
       <c r="D6">
-        <v>0.01804872768640209</v>
+        <v>0.02435934524456584</v>
       </c>
       <c r="E6">
-        <v>0.03206951376775269</v>
+        <v>0.03190576063808415</v>
       </c>
       <c r="F6">
-        <v>1.316551342731842</v>
+        <v>1.118191187930108</v>
       </c>
       <c r="G6">
-        <v>1.103338443551067</v>
+        <v>0.893947028035484</v>
       </c>
       <c r="H6">
-        <v>0.01708161614560677</v>
+        <v>0.01316621305671986</v>
       </c>
       <c r="I6">
-        <v>0.02231895594785804</v>
+        <v>0.01577172373395008</v>
       </c>
       <c r="J6">
-        <v>0.7581444640707673</v>
+        <v>0.6565972450430024</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.05658034533069856</v>
+        <v>0.268818561015209</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1959826931020103</v>
       </c>
       <c r="N6">
-        <v>0.2248998763017056</v>
+        <v>0.05190209286394598</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.257253859439146</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.667968583897675</v>
+        <v>2.668036829255982</v>
       </c>
       <c r="C7">
-        <v>0.389226052371896</v>
+        <v>0.4447946478984761</v>
       </c>
       <c r="D7">
-        <v>0.01863318957584781</v>
+        <v>0.02532644659146754</v>
       </c>
       <c r="E7">
-        <v>0.03273885629810724</v>
+        <v>0.03246481334879459</v>
       </c>
       <c r="F7">
-        <v>1.339157403563632</v>
+        <v>1.129479560629548</v>
       </c>
       <c r="G7">
-        <v>1.12503730255348</v>
+        <v>0.9085093498518404</v>
       </c>
       <c r="H7">
-        <v>0.01565989973691895</v>
+        <v>0.01205353145237603</v>
       </c>
       <c r="I7">
-        <v>0.02070067868563985</v>
+        <v>0.01464820933528088</v>
       </c>
       <c r="J7">
-        <v>0.7666335149234556</v>
+        <v>0.6549747357126279</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.05759596076212858</v>
+        <v>0.2670764182564831</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1960254562313644</v>
       </c>
       <c r="N7">
-        <v>0.2351477970144202</v>
+        <v>0.05260965600770806</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.2691134485867082</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.211375306836999</v>
+        <v>3.214777302079369</v>
       </c>
       <c r="C8">
-        <v>0.4628808509935425</v>
+        <v>0.5381048077108517</v>
       </c>
       <c r="D8">
-        <v>0.02110632489591779</v>
+        <v>0.02920703404236136</v>
       </c>
       <c r="E8">
-        <v>0.03572268880612572</v>
+        <v>0.03492216874070664</v>
       </c>
       <c r="F8">
-        <v>1.446857564691044</v>
+        <v>1.191655660530827</v>
       </c>
       <c r="G8">
-        <v>1.228901497812117</v>
+        <v>0.9738080129625359</v>
       </c>
       <c r="H8">
-        <v>0.01027150043931259</v>
+        <v>0.007828056906682535</v>
       </c>
       <c r="I8">
-        <v>0.01430970983280488</v>
+        <v>0.01012201383077471</v>
       </c>
       <c r="J8">
-        <v>0.8084359840271418</v>
+        <v>0.6672884013992473</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.06216981117479214</v>
+        <v>0.2622912480912696</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1999922997382129</v>
       </c>
       <c r="N8">
-        <v>0.2797116226005301</v>
+        <v>0.05585384115731706</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.3208427793386619</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.280598383870768</v>
+        <v>4.287427790709501</v>
       </c>
       <c r="C9">
-        <v>0.6055290639825444</v>
+        <v>0.7225478442225324</v>
       </c>
       <c r="D9">
-        <v>0.02588535432818162</v>
+        <v>0.03626831378774042</v>
       </c>
       <c r="E9">
-        <v>0.04164033926891086</v>
+        <v>0.03970653904939958</v>
       </c>
       <c r="F9">
-        <v>1.676203587823309</v>
+        <v>1.337374632384993</v>
       </c>
       <c r="G9">
-        <v>1.450930947886064</v>
+        <v>1.107084707133794</v>
       </c>
       <c r="H9">
-        <v>0.003290429701835129</v>
+        <v>0.002399191242435705</v>
       </c>
       <c r="I9">
-        <v>0.005568302951462378</v>
+        <v>0.003940239740812146</v>
       </c>
       <c r="J9">
-        <v>0.900376014179642</v>
+        <v>0.7241776646166898</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.0712127710343804</v>
+        <v>0.2568619439074347</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.2181954274210334</v>
       </c>
       <c r="N9">
-        <v>0.3666618374600716</v>
+        <v>0.0623008149996247</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.4221087428973505</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.070204879946743</v>
+        <v>5.0769329963818</v>
       </c>
       <c r="C10">
-        <v>0.7203143607014511</v>
+        <v>0.8641352408234866</v>
       </c>
       <c r="D10">
-        <v>0.0295147677945593</v>
+        <v>0.04230850499424577</v>
       </c>
       <c r="E10">
-        <v>0.04484738297504887</v>
+        <v>0.0422830560032601</v>
       </c>
       <c r="F10">
-        <v>1.809744923935625</v>
+        <v>1.401414760994996</v>
       </c>
       <c r="G10">
-        <v>1.580421480802244</v>
+        <v>1.198448489807291</v>
       </c>
       <c r="H10">
-        <v>0.0009707479953546816</v>
+        <v>0.0007143982580863906</v>
       </c>
       <c r="I10">
-        <v>0.00234697862745481</v>
+        <v>0.001908030417290263</v>
       </c>
       <c r="J10">
-        <v>0.9512768785840819</v>
+        <v>0.7093883956664371</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.07578413494032255</v>
+        <v>0.243640078233625</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.2261204393458769</v>
       </c>
       <c r="N10">
-        <v>0.4226947979609861</v>
+        <v>0.06569761868909652</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.4874536150248474</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.426798803732197</v>
+        <v>5.432984923367542</v>
       </c>
       <c r="C11">
-        <v>0.8343758664920529</v>
+        <v>0.9678677790338099</v>
       </c>
       <c r="D11">
-        <v>0.03020278377046282</v>
+        <v>0.04356560917197783</v>
       </c>
       <c r="E11">
-        <v>0.03868531467257652</v>
+        <v>0.03704520129748623</v>
       </c>
       <c r="F11">
-        <v>1.560305693077666</v>
+        <v>1.183411257189434</v>
       </c>
       <c r="G11">
-        <v>1.343065915935739</v>
+        <v>1.058230126162584</v>
       </c>
       <c r="H11">
-        <v>0.01935885229155687</v>
+        <v>0.01917920214067692</v>
       </c>
       <c r="I11">
-        <v>0.002296495403006915</v>
+        <v>0.00220065956149984</v>
       </c>
       <c r="J11">
-        <v>0.8248348896845243</v>
+        <v>0.5443570316249264</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.06874777178130742</v>
+        <v>0.1954875321052825</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1803323059566075</v>
       </c>
       <c r="N11">
-        <v>0.3701371939837657</v>
+        <v>0.0653450324954683</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.4254392216598717</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.56045864587395</v>
+        <v>5.566544787024213</v>
       </c>
       <c r="C12">
-        <v>0.906238905479313</v>
+        <v>1.024827120418195</v>
       </c>
       <c r="D12">
-        <v>0.0296894054225838</v>
+        <v>0.04237393757006203</v>
       </c>
       <c r="E12">
-        <v>0.0360604080826451</v>
+        <v>0.03499091466152898</v>
       </c>
       <c r="F12">
-        <v>1.347031752937525</v>
+        <v>1.017120468336145</v>
       </c>
       <c r="G12">
-        <v>1.141678762889484</v>
+        <v>0.9261671854416278</v>
       </c>
       <c r="H12">
-        <v>0.05807479533946491</v>
+        <v>0.05789384433906264</v>
       </c>
       <c r="I12">
-        <v>0.002203570139193367</v>
+        <v>0.002144977024187256</v>
       </c>
       <c r="J12">
-        <v>0.7202186337633094</v>
+        <v>0.4515939464983774</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.07189667654122545</v>
+        <v>0.1663989562274928</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1479436777811998</v>
       </c>
       <c r="N12">
-        <v>0.3158952056556359</v>
+        <v>0.07342150051354324</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.3618829871170703</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.528746499398551</v>
+        <v>5.535233555929779</v>
       </c>
       <c r="C13">
-        <v>0.9532010808941322</v>
+        <v>1.054307874670172</v>
       </c>
       <c r="D13">
-        <v>0.0284681396904638</v>
+        <v>0.0391987346335867</v>
       </c>
       <c r="E13">
-        <v>0.03586616003355658</v>
+        <v>0.03526111470670923</v>
       </c>
       <c r="F13">
-        <v>1.138553039406105</v>
+        <v>0.8749361818542241</v>
       </c>
       <c r="G13">
-        <v>0.9450211636623749</v>
+        <v>0.7799063073139081</v>
       </c>
       <c r="H13">
-        <v>0.1140665171170525</v>
+        <v>0.1138155567048358</v>
       </c>
       <c r="I13">
-        <v>0.002408767192011219</v>
+        <v>0.002240868855146516</v>
       </c>
       <c r="J13">
-        <v>0.6204883453591066</v>
+        <v>0.4042999539933874</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.08253388811875695</v>
+        <v>0.1468093847563932</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1226031699163421</v>
       </c>
       <c r="N13">
-        <v>0.2592445082712374</v>
+        <v>0.08765610235397148</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.295457033484027</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.431712607887846</v>
+        <v>5.438628238415902</v>
       </c>
       <c r="C14">
-        <v>0.9759218389076239</v>
+        <v>1.063446394197797</v>
       </c>
       <c r="D14">
-        <v>0.02733716178400769</v>
+        <v>0.03624755725493145</v>
       </c>
       <c r="E14">
-        <v>0.0372279968816569</v>
+        <v>0.03693696022544657</v>
       </c>
       <c r="F14">
-        <v>0.9964138453248239</v>
+        <v>0.7848102478884798</v>
       </c>
       <c r="G14">
-        <v>0.811041851351618</v>
+        <v>0.673794619227607</v>
       </c>
       <c r="H14">
-        <v>0.1637038670154993</v>
+        <v>0.163360951040957</v>
       </c>
       <c r="I14">
-        <v>0.002824408818426605</v>
+        <v>0.00251179501693688</v>
       </c>
       <c r="J14">
-        <v>0.553541487784571</v>
+        <v>0.3864189907701672</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.09455640308063451</v>
+        <v>0.1366387786403731</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1080561377722837</v>
       </c>
       <c r="N14">
-        <v>0.2196534795118339</v>
+        <v>0.1012514629583734</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.2490576149536992</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.372856205759717</v>
+        <v>5.379940550537867</v>
       </c>
       <c r="C15">
-        <v>0.976813833405032</v>
+        <v>1.060633896988577</v>
       </c>
       <c r="D15">
-        <v>0.02697832636630793</v>
+        <v>0.03524982761521755</v>
       </c>
       <c r="E15">
-        <v>0.03765956436486917</v>
+        <v>0.03747733223454297</v>
       </c>
       <c r="F15">
-        <v>0.9593491523923205</v>
+        <v>0.7639904583720352</v>
       </c>
       <c r="G15">
-        <v>0.7758409007692677</v>
+        <v>0.6437680545481044</v>
       </c>
       <c r="H15">
-        <v>0.176367273329916</v>
+        <v>0.1759758786553789</v>
       </c>
       <c r="I15">
-        <v>0.003150294500569473</v>
+        <v>0.00277988866045753</v>
       </c>
       <c r="J15">
-        <v>0.5364918384475175</v>
+        <v>0.387254644059098</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.09785192750130278</v>
+        <v>0.1349392728958421</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1050983353715189</v>
       </c>
       <c r="N15">
-        <v>0.2094219977561949</v>
+        <v>0.1047158323174244</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.2370047314865502</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.037925598631546</v>
+        <v>5.045486941105764</v>
       </c>
       <c r="C16">
-        <v>0.9174183402741676</v>
+        <v>0.9988138176616985</v>
       </c>
       <c r="D16">
-        <v>0.02575156178994931</v>
+        <v>0.03230350285848971</v>
       </c>
       <c r="E16">
-        <v>0.03628156864491405</v>
+        <v>0.03643648083242557</v>
       </c>
       <c r="F16">
-        <v>0.94411950287585</v>
+        <v>0.7803266302972673</v>
       </c>
       <c r="G16">
-        <v>0.7595426049214353</v>
+        <v>0.6148687644686248</v>
       </c>
       <c r="H16">
-        <v>0.1645583382238556</v>
+        <v>0.1638867327052225</v>
       </c>
       <c r="I16">
-        <v>0.004429890895674582</v>
+        <v>0.003630578976807186</v>
       </c>
       <c r="J16">
-        <v>0.5341425034495444</v>
+        <v>0.4387887316142667</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.09338929403232754</v>
+        <v>0.1427652042344114</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1107203864899695</v>
       </c>
       <c r="N16">
-        <v>0.1991341253682037</v>
+        <v>0.09926396965475703</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.2248218737116332</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.833361260415984</v>
+        <v>4.84094460381317</v>
       </c>
       <c r="C17">
-        <v>0.8600318846631581</v>
+        <v>0.9458698598238016</v>
       </c>
       <c r="D17">
-        <v>0.02542766586545042</v>
+        <v>0.03175316644379578</v>
       </c>
       <c r="E17">
-        <v>0.0342258903178374</v>
+        <v>0.03439250210533018</v>
       </c>
       <c r="F17">
-        <v>1.005739650052348</v>
+        <v>0.8384782174804997</v>
       </c>
       <c r="G17">
-        <v>0.8160063573044027</v>
+        <v>0.6493761330802954</v>
       </c>
       <c r="H17">
-        <v>0.1273973627283596</v>
+        <v>0.1265488685212546</v>
       </c>
       <c r="I17">
-        <v>0.005280887461623252</v>
+        <v>0.004217122959200736</v>
       </c>
       <c r="J17">
-        <v>0.566920779364537</v>
+        <v>0.4864313996608871</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.08277298461473848</v>
+        <v>0.1547618131663988</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1220782260452893</v>
       </c>
       <c r="N17">
-        <v>0.2116797886891817</v>
+        <v>0.08744467259585065</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.239374336403074</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.716664478697112</v>
+        <v>4.724165087738243</v>
       </c>
       <c r="C18">
-        <v>0.7966969648210522</v>
+        <v>0.8939068039219649</v>
       </c>
       <c r="D18">
-        <v>0.02568366773962083</v>
+        <v>0.03271768925411322</v>
       </c>
       <c r="E18">
-        <v>0.03288439632287421</v>
+        <v>0.03272480369401887</v>
       </c>
       <c r="F18">
-        <v>1.152781452861134</v>
+        <v>0.9530553022257777</v>
       </c>
       <c r="G18">
-        <v>0.9539900551266953</v>
+        <v>0.7455891523348299</v>
       </c>
       <c r="H18">
-        <v>0.07475159454731539</v>
+        <v>0.07385697586130391</v>
       </c>
       <c r="I18">
-        <v>0.005327349737728859</v>
+        <v>0.004127641265442072</v>
       </c>
       <c r="J18">
-        <v>0.6397931998329227</v>
+        <v>0.5498436463458916</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.07018612016518944</v>
+        <v>0.1750905634618398</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1427331040976796</v>
       </c>
       <c r="N18">
-        <v>0.2466654031082527</v>
+        <v>0.07271159878932565</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.2803314559889714</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.67849705001845</v>
+        <v>4.685903207727108</v>
       </c>
       <c r="C19">
-        <v>0.741564374069128</v>
+        <v>0.8538441085918578</v>
       </c>
       <c r="D19">
-        <v>0.02664585233747374</v>
+        <v>0.03504063088196219</v>
       </c>
       <c r="E19">
-        <v>0.03446696637392588</v>
+        <v>0.03362891011872993</v>
       </c>
       <c r="F19">
-        <v>1.360812401242413</v>
+        <v>1.107110457482335</v>
       </c>
       <c r="G19">
-        <v>1.150220271949024</v>
+        <v>0.8829617173823863</v>
       </c>
       <c r="H19">
-        <v>0.02914408669875002</v>
+        <v>0.02834379017908617</v>
       </c>
       <c r="I19">
-        <v>0.005225314893785971</v>
+        <v>0.004133545623291823</v>
       </c>
       <c r="J19">
-        <v>0.7405370798452111</v>
+        <v>0.6249723976169292</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.06396157704779704</v>
+        <v>0.2018655486920515</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1707199754773718</v>
       </c>
       <c r="N19">
-        <v>0.3021095526775355</v>
+        <v>0.06282380420798894</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.3451007020083807</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.862266560815272</v>
+        <v>4.869344879537323</v>
       </c>
       <c r="C20">
-        <v>0.6988764282382931</v>
+        <v>0.8374815614039051</v>
       </c>
       <c r="D20">
-        <v>0.0290630971304715</v>
+        <v>0.04068552511540702</v>
       </c>
       <c r="E20">
-        <v>0.04378159037563201</v>
+        <v>0.0413820800139213</v>
       </c>
       <c r="F20">
-        <v>1.750916176170307</v>
+        <v>1.377279872789941</v>
       </c>
       <c r="G20">
-        <v>1.52173613585768</v>
+        <v>1.146164971216137</v>
       </c>
       <c r="H20">
-        <v>0.001409339581265989</v>
+        <v>0.001007762657115663</v>
       </c>
       <c r="I20">
-        <v>0.003839661563697305</v>
+        <v>0.003275908201774591</v>
       </c>
       <c r="J20">
-        <v>0.9253690938845978</v>
+        <v>0.7306846861460627</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.07391220964857226</v>
+        <v>0.245040458151351</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.2216211487478077</v>
       </c>
       <c r="N20">
-        <v>0.4107241608949437</v>
+        <v>0.06454701792865292</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.4725410709773001</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.470881983567494</v>
+        <v>5.476133871888635</v>
       </c>
       <c r="C21">
-        <v>0.7766941501864437</v>
+        <v>0.9288542984973276</v>
       </c>
       <c r="D21">
-        <v>0.03203069421507365</v>
+        <v>0.04906838619830722</v>
       </c>
       <c r="E21">
-        <v>0.04807007052198387</v>
+        <v>0.04521306040299411</v>
       </c>
       <c r="F21">
-        <v>1.915501865531425</v>
+        <v>1.415057196070634</v>
       </c>
       <c r="G21">
-        <v>1.680874319087138</v>
+        <v>1.311967009503377</v>
       </c>
       <c r="H21">
-        <v>0.0001378096407234075</v>
+        <v>8.26800160136365E-05</v>
       </c>
       <c r="I21">
-        <v>0.002154342465282788</v>
+        <v>0.002270253703892777</v>
       </c>
       <c r="J21">
-        <v>0.9946944654043079</v>
+        <v>0.6087713913042165</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.08040547066018888</v>
+        <v>0.2330831625581204</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.2259769360589914</v>
       </c>
       <c r="N21">
-        <v>0.4682021843182156</v>
+        <v>0.06802416276257706</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.5409347054457072</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.870197162521947</v>
+        <v>5.87345516135116</v>
       </c>
       <c r="C22">
-        <v>0.8277618355819527</v>
+        <v>0.9870497725996188</v>
       </c>
       <c r="D22">
-        <v>0.0337252323864341</v>
+        <v>0.054624161128487</v>
       </c>
       <c r="E22">
-        <v>0.05038838461527284</v>
+        <v>0.04734190678005401</v>
       </c>
       <c r="F22">
-        <v>2.015274497752188</v>
+        <v>1.429624687321891</v>
       </c>
       <c r="G22">
-        <v>1.778349805966769</v>
+        <v>1.423888094646145</v>
       </c>
       <c r="H22">
-        <v>1.060838178590373E-05</v>
+        <v>1.365940066655469E-05</v>
       </c>
       <c r="I22">
-        <v>0.001444342845973168</v>
+        <v>0.001713664253922609</v>
       </c>
       <c r="J22">
-        <v>1.036754156982909</v>
+        <v>0.5280506949213333</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.08397781099722224</v>
+        <v>0.2240181989243908</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.2274836582986026</v>
       </c>
       <c r="N22">
-        <v>0.4998782449548429</v>
+        <v>0.06992156800089155</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.5791258298946076</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.657013855472712</v>
+        <v>5.661494988328229</v>
       </c>
       <c r="C23">
-        <v>0.7971592765005653</v>
+        <v>0.9540277639492274</v>
       </c>
       <c r="D23">
-        <v>0.03261729227997634</v>
+        <v>0.05093935242174297</v>
       </c>
       <c r="E23">
-        <v>0.04921493430909152</v>
+        <v>0.04620980269026997</v>
       </c>
       <c r="F23">
-        <v>1.970256095634113</v>
+        <v>1.435624036567873</v>
       </c>
       <c r="G23">
-        <v>1.734940550537033</v>
+        <v>1.362720120472545</v>
       </c>
       <c r="H23">
-        <v>2.14297405727315E-05</v>
+        <v>8.644449793537845E-06</v>
       </c>
       <c r="I23">
-        <v>0.001441720419133041</v>
+        <v>0.001587096456704629</v>
       </c>
       <c r="J23">
-        <v>1.018665201869084</v>
+        <v>0.5889064931360224</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.08230675331983406</v>
+        <v>0.2314658079384344</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.2298483840013219</v>
       </c>
       <c r="N23">
-        <v>0.4817103580479767</v>
+        <v>0.06912327501995552</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.5574078075988638</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.85277781880518</v>
+        <v>4.859834686967588</v>
       </c>
       <c r="C24">
-        <v>0.6877319294339657</v>
+        <v>0.8273939349654995</v>
       </c>
       <c r="D24">
-        <v>0.02882507460522987</v>
+        <v>0.04055782711824207</v>
       </c>
       <c r="E24">
-        <v>0.04471525821544819</v>
+        <v>0.04218217482122544</v>
       </c>
       <c r="F24">
-        <v>1.789404838668872</v>
+        <v>1.406152028537406</v>
       </c>
       <c r="G24">
-        <v>1.559593651406544</v>
+        <v>1.172771071306713</v>
       </c>
       <c r="H24">
-        <v>0.001233797996526009</v>
+        <v>0.0008452318748783938</v>
       </c>
       <c r="I24">
-        <v>0.003297384524274527</v>
+        <v>0.00264493260378007</v>
       </c>
       <c r="J24">
-        <v>0.9446870562432821</v>
+        <v>0.7458452629642949</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.07562101819430289</v>
+        <v>0.2511167160859671</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.227962715953705</v>
       </c>
       <c r="N24">
-        <v>0.4154401718298573</v>
+        <v>0.06543901642135452</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.4785480641818367</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.990655490224185</v>
+        <v>3.996972833368773</v>
       </c>
       <c r="C25">
-        <v>0.5714820351745118</v>
+        <v>0.6777943039207912</v>
       </c>
       <c r="D25">
-        <v>0.02486482721346306</v>
+        <v>0.03442402990133075</v>
       </c>
       <c r="E25">
-        <v>0.03993730669879358</v>
+        <v>0.03831767367191219</v>
       </c>
       <c r="F25">
-        <v>1.600653551755528</v>
+        <v>1.292028677869638</v>
       </c>
       <c r="G25">
-        <v>1.37681451379305</v>
+        <v>1.056493697383971</v>
       </c>
       <c r="H25">
-        <v>0.004779342532173159</v>
+        <v>0.003535972262587395</v>
       </c>
       <c r="I25">
-        <v>0.007935725377006264</v>
+        <v>0.005793704785483023</v>
       </c>
       <c r="J25">
-        <v>0.8683014360995003</v>
+        <v>0.7146121329066801</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.06843002032789691</v>
+        <v>0.2569136246056374</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2110602381265565</v>
       </c>
       <c r="N25">
-        <v>0.3448188794478</v>
+        <v>0.06042108646681488</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.3961478350813223</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
